--- a/medicine/Psychotrope/Central_Delaware_Valley/Central_Delaware_Valley.xlsx
+++ b/medicine/Psychotrope/Central_Delaware_Valley/Central_Delaware_Valley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'appellation centre de la vallée du Delaware AVA est une région viticole américaine située dans le sud-est de la Pennsylvanie et du New Jersey. 
@@ -512,10 +524,12 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’appellation viticole s'étend sur 38 850 hectares entourant la rivière Delaware au nord de Philadelphie. Sa limite sud se trouve près de Titusville, dans le New Jersey, juste au nord de Trenton, et sa frontière nord, près de Musconetcong Mountain. 
-La zone viticole de la vallée centrale du Delaware est située le long de la rivière Delaware, dans les comtés de Hunterdon et Mercer, dans le New Jersey, et de Bucks, en Pennsylvanie. Le Federal Register décrit les limites de l'AVA de la vallée du Delaware centrale comme suit[1]:
+La zone viticole de la vallée centrale du Delaware est située le long de la rivière Delaware, dans les comtés de Hunterdon et Mercer, dans le New Jersey, et de Bucks, en Pennsylvanie. Le Federal Register décrit les limites de l'AVA de la vallée du Delaware centrale comme suit:
 Le point de départ de la description des limites suivante est le sommet de Strawberry Hill, situé dans le New Jersey, près de la rivière Delaware, à environ 1,5 km au nord-ouest de Titusville.
 Du sommet de Strawberry Hill en ligne droite jusqu'au sommet du mont. Canoë.
 De là, plein est vers le comté de Mercer, route 579 (Bear Tavern Road), à environ 1,2 km au sud de Ackors Corner.
@@ -550,8 +564,6 @@
 De là, en ligne droite jusqu'au point où une ligne de transport d'énergie traverse la ligne de contour de 122 mètres du côté sud du mont Solebury.
 De là, en ligne droite jusqu'à la tour de Bowman Hill, dans le parc national de Washington Crossing.
 De là, en ligne droite à travers la rivière Delaware jusqu'au point de départ, le sommet de Strawberry Hill (144,78 mètres).
-Climat
-Il a un climat continental chaud et humide en été et se trouve dans les zones de rusticité 6b et 7a.
 </t>
         </is>
       </c>
@@ -577,12 +589,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cépages</t>
+          <t>Géographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les principaux cépages utilisés sont : Chardonnay, Riesling, Cabernet sauvignon, Pinot noir. Des cépages hybrides sont également utilisés, comme Chambourcin, Vidal blanc, Chancellor, Léon Millot, Seyval blanc ou Vidal blanc[2].
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a un climat continental chaud et humide en été et se trouve dans les zones de rusticité 6b et 7a.
 </t>
         </is>
       </c>
@@ -608,16 +626,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Cépages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les principaux cépages utilisés sont : Chardonnay, Riesling, Cabernet sauvignon, Pinot noir. Des cépages hybrides sont également utilisés, comme Chambourcin, Vidal blanc, Chancellor, Léon Millot, Seyval blanc ou Vidal blanc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Central_Delaware_Valley</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Central_Delaware_Valley</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Domaines viticoles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2019, il existe trois établissements vinicoles dans la AVA centrale de la vallée du Delaware, tous situés en Pennsylvanie[1]:   
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2019, il existe trois établissements vinicoles dans la AVA centrale de la vallée du Delaware, tous situés en Pennsylvanie:   
 Crossing Vineyards &amp; Winery à Washington Crossing
 New Hope Winery à New Hope
 Sand Castle Winery à Erwinna
-Il n'y a actuellement aucun établissement vinicole du New Jersey établi dans la AVA de la vallée centrale du Delaware[3]. 
+Il n'y a actuellement aucun établissement vinicole du New Jersey établi dans la AVA de la vallée centrale du Delaware. 
 </t>
         </is>
       </c>
